--- a/spliced/walkingToRunning/2023-03-30_14-22-08/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-08/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.053479909896851</v>
+        <v>6.657902849829999e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3754391372203827</v>
+        <v>0.5838314890861511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5234442949295044</v>
+        <v>0.3130545914173126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.651625990867615</v>
+        <v>1.05201518535614</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3386875092983246</v>
+        <v>1.37851881980896</v>
       </c>
       <c r="C3" t="n">
-        <v>2.086187362670898</v>
+        <v>0.5420864224433899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.480534791946411</v>
+        <v>-1.053479909896851</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6072673201560974</v>
+        <v>-0.3754391372203827</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0555269084870815</v>
+        <v>0.5234442949295044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3121890723705292</v>
+        <v>-1.651625990867615</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.295861721038818</v>
+        <v>-0.3386875092983246</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.403902292251587</v>
+        <v>2.086187362670898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.045657634735107</v>
+        <v>2.480534791946411</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.371461391448975</v>
+        <v>0.6072673201560974</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.965579986572266</v>
+        <v>-0.0555269084870815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.784917116165161</v>
+        <v>0.3121890723705292</v>
       </c>
       <c r="B7" t="n">
-        <v>3.971904993057251</v>
+        <v>-3.295861721038818</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.264420986175537</v>
+        <v>-2.403902292251587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.070807456970215</v>
+        <v>3.045657634735107</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.531001806259156</v>
+        <v>-1.371461391448975</v>
       </c>
       <c r="C8" t="n">
-        <v>5.346961975097656</v>
+        <v>-3.965579986572266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.287373542785645</v>
+        <v>1.784917116165161</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.623929142951965</v>
+        <v>3.971904993057251</v>
       </c>
       <c r="C9" t="n">
-        <v>4.378103733062744</v>
+        <v>-6.264420986175537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.357216835021973</v>
+        <v>-2.070807456970215</v>
       </c>
       <c r="B10" t="n">
-        <v>4.914664268493652</v>
+        <v>-2.531001806259156</v>
       </c>
       <c r="C10" t="n">
-        <v>2.073936700820923</v>
+        <v>5.346961975097656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.831788778305054</v>
+        <v>-5.287373542785645</v>
       </c>
       <c r="B11" t="n">
-        <v>-9.64909839630127</v>
+        <v>-1.623929142951965</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.40841281414032</v>
+        <v>4.378103733062744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.237405300140381</v>
+        <v>-9.357216835021973</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.015663027763367</v>
+        <v>4.914664268493652</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.009289741516113</v>
+        <v>2.073936700820923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.363673210144043</v>
+        <v>1.831788778305054</v>
       </c>
       <c r="B13" t="n">
-        <v>3.099453449249268</v>
+        <v>-9.64909839630127</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.63826060295105</v>
+        <v>-1.40841281414032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.723599433898926</v>
+        <v>3.237405300140381</v>
       </c>
       <c r="B14" t="n">
-        <v>2.653107643127441</v>
+        <v>-1.015663027763367</v>
       </c>
       <c r="C14" t="n">
-        <v>2.690192222595215</v>
+        <v>-6.009289741516113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.246927738189697</v>
+        <v>5.363673210144043</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.130711674690247</v>
+        <v>3.099453449249268</v>
       </c>
       <c r="C15" t="n">
-        <v>3.536544799804688</v>
+        <v>-2.63826060295105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5896904468536377</v>
+        <v>-5.723599433898926</v>
       </c>
       <c r="B16" t="n">
-        <v>12.76406574249268</v>
+        <v>2.653107643127441</v>
       </c>
       <c r="C16" t="n">
-        <v>2.221475839614868</v>
+        <v>2.690192222595215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.113667368888855</v>
+        <v>-7.246927738189697</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.135539293289185</v>
+        <v>-1.130711674690247</v>
       </c>
       <c r="C17" t="n">
-        <v>2.971954584121704</v>
+        <v>3.536544799804688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.756506443023682</v>
+        <v>0.5896904468536377</v>
       </c>
       <c r="B18" t="n">
-        <v>-7.358247756958008</v>
+        <v>12.76406574249268</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.698232650756836</v>
+        <v>2.221475839614868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.204665184020996</v>
+        <v>-1.113667368888855</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.005010485649109</v>
+        <v>-3.135539293289185</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.928545236587524</v>
+        <v>2.971954584121704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.400756239891052</v>
+        <v>6.756506443023682</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9566740393638612</v>
+        <v>-7.358247756958008</v>
       </c>
       <c r="C20" t="n">
-        <v>2.680604934692383</v>
+        <v>-5.698232650756836</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>4.204665184020996</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.005010485649109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.928545236587524</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.400756239891052</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9566740393638612</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.680604934692383</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-11.39346981048584</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-1.724596619606018</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>13.37479496002197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.482767105102539</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.4398876428604126</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.189353942871094</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.3088601231575012</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.590475082397461</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.290185451507568</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6.10509729385376</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.359460175037384</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.315519332885742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.245227575302124</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.861483097076416</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.978062987327576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.619668006896973</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.064798355102539</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.856090188026428</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-10.51302814483643</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-17.02712059020996</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.28569221496582</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9.720071792602541</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.732869386672974</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.917076587677002</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3920839130878448</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.407997608184815</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.71547520160675</v>
       </c>
     </row>
   </sheetData>
